--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,24 +8,74 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d88e08580ed047bc/Dators/Education/School/ZPD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_36E511A2D3D0DF591F992011595ED87656CD7CDD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC800A57-D3C5-4A42-8196-93BBE58FFDDE}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="11_36E511A2D3D0DF591F992011595ED87656CD7CDD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D21F5721-DE23-48C2-9807-2E8AE0F54776}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+  <si>
+    <t>Iteration Nr</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>HEBO</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>10 iterations</t>
+  </si>
+  <si>
+    <t>50 iterations</t>
+  </si>
+  <si>
+    <t>100 iterations</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,9 +84,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,10 +128,45 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -59,12 +175,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,25 +502,1150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>294</v>
+      </c>
+      <c r="E4" s="1">
+        <v>350</v>
+      </c>
+      <c r="F4" s="1">
+        <f>306-D4</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <f>350-E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <f>306-J4</f>
+        <v>306</v>
+      </c>
+      <c r="M4" s="1">
+        <f>350-K4</f>
+        <v>350</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
+        <f>306-P4</f>
+        <v>306</v>
+      </c>
+      <c r="S4" s="1">
+        <f>350-Q4</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>297</v>
+      </c>
+      <c r="E5" s="1">
+        <v>350</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F13" si="0">306-D5</f>
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G13" si="1">350-E5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L13" si="2">306-J5</f>
+        <v>306</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ref="M5:M13" si="3">350-K5</f>
+        <v>350</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R13" si="4">306-P5</f>
+        <v>306</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:S13" si="5">350-Q5</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>293</v>
+      </c>
+      <c r="E6" s="1">
+        <v>350</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>298</v>
+      </c>
+      <c r="E7" s="1">
+        <v>350</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>296</v>
+      </c>
+      <c r="E8" s="1">
+        <v>350</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>299</v>
+      </c>
+      <c r="E19" s="1">
+        <v>349</v>
+      </c>
+      <c r="F19" s="1">
+        <f>306-D19</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <f>350-E19</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <f>306 - J19</f>
+        <v>306</v>
+      </c>
+      <c r="M19" s="1">
+        <f>350-K19</f>
+        <v>350</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1">
+        <f>306-P19</f>
+        <v>306</v>
+      </c>
+      <c r="S19" s="1">
+        <f>350-Q19</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>298</v>
+      </c>
+      <c r="E20" s="1">
+        <v>350</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20:F28" si="6">306-D20</f>
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G28" si="7">350-E20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:L28" si="8">306 - J20</f>
+        <v>306</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ref="M20:M28" si="9">350-K20</f>
+        <v>350</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R28" si="10">306-P20</f>
+        <v>306</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S28" si="11">350-Q20</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>298</v>
+      </c>
+      <c r="E21" s="1">
+        <v>350</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="D22" s="1">
+        <v>297</v>
+      </c>
+      <c r="E22" s="1">
+        <v>350</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="D23" s="1">
+        <v>297</v>
+      </c>
+      <c r="E23" s="1">
+        <v>350</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="B16:S16"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="N2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>